--- a/output/fit_clients/fit_round_102.xlsx
+++ b/output/fit_clients/fit_round_102.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2091121447.880967</v>
+        <v>1620060470.63436</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08611359180286884</v>
+        <v>0.07033731643612316</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04477688705634378</v>
+        <v>0.04329640037460202</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1045560731.771576</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2571862946.681149</v>
+        <v>2492719483.888736</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1403302756187305</v>
+        <v>0.1641701150358503</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03415269135447418</v>
+        <v>0.05030677006816414</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1285931601.887917</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3208917590.548037</v>
+        <v>3286499747.80875</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1669893625300709</v>
+        <v>0.147830675086137</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03075503735922798</v>
+        <v>0.02782329451288157</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>37</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1604458753.341603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4066165526.482763</v>
+        <v>2724814592.66737</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09523469521905412</v>
+        <v>0.08884267346111242</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04149396806423054</v>
+        <v>0.03855352775005371</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>39</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2033082762.476262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2090289955.338935</v>
+        <v>2110599402.138188</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1424867244579025</v>
+        <v>0.09867888430866305</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04902113610788906</v>
+        <v>0.04847478286846437</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>17</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1045144997.429445</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2382242541.893713</v>
+        <v>1988335483.371479</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0811915608201841</v>
+        <v>0.06788257719003164</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03108891728919889</v>
+        <v>0.03160624846552589</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1191121295.275118</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3618597891.418504</v>
+        <v>2900417631.517852</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1879664389582076</v>
+        <v>0.2120135132409076</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03172854150591247</v>
+        <v>0.02507496457985409</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>33</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1809299066.385305</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1974035451.913375</v>
+        <v>2004201979.168417</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1543459325866642</v>
+        <v>0.1227669108748795</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03177853165815174</v>
+        <v>0.03264950428325375</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>987017756.1070979</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5260712571.898598</v>
+        <v>5177638561.426985</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1852436557318523</v>
+        <v>0.1313921106491254</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05133214744844661</v>
+        <v>0.04949376228905884</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>43</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2630356405.388135</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3505711411.377094</v>
+        <v>3268176519.428621</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1518342267002286</v>
+        <v>0.1280929876213939</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04783276704341721</v>
+        <v>0.04001219820699769</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>43</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1752855683.870755</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2197034937.962475</v>
+        <v>3312849815.947619</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1309667343950922</v>
+        <v>0.1453743249039253</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03330986596079227</v>
+        <v>0.05385824711931121</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>36</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1098517413.388483</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4429573769.715104</v>
+        <v>3355521796.574426</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06780483764477917</v>
+        <v>0.07431318506323285</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0282738418698295</v>
+        <v>0.0292623108518724</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>34</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2214786917.905089</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3721081230.324859</v>
+        <v>2532326433.789375</v>
       </c>
       <c r="F14" t="n">
-        <v>0.183268512610862</v>
+        <v>0.1888613587593777</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02681556219576602</v>
+        <v>0.03397086316462037</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>32</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1860540597.3377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1596487623.322114</v>
+        <v>1761060587.356228</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07479722614833648</v>
+        <v>0.09954051310137989</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04037500042316533</v>
+        <v>0.03004688721272033</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>798243918.9683528</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2433227179.647317</v>
+        <v>2823399342.543982</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09348737942782696</v>
+        <v>0.1051146730177785</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03450397524411331</v>
+        <v>0.04724979497754065</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1216613626.536243</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5148479528.50031</v>
+        <v>3589130600.91532</v>
       </c>
       <c r="F17" t="n">
-        <v>0.148562294095033</v>
+        <v>0.1426594869052214</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04261544935387279</v>
+        <v>0.03378199842606518</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>30</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2574239742.028972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4004288151.025407</v>
+        <v>3061523977.486529</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1321106691679101</v>
+        <v>0.1531023275997966</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03347313993285551</v>
+        <v>0.02392315947490917</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>34</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2002144033.00623</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1185855245.091105</v>
+        <v>1128227926.337866</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1838167970426595</v>
+        <v>0.1861495914018071</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01921132621825405</v>
+        <v>0.02388571130514217</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>592927696.9392093</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2398747165.481009</v>
+        <v>2059013555.049924</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1265062491155422</v>
+        <v>0.1522480971442937</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02607583142222802</v>
+        <v>0.02796392282196534</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>13</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1199373566.525212</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2292533525.580306</v>
+        <v>1774652941.052556</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09185112273114372</v>
+        <v>0.0960955066231497</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02932344353411425</v>
+        <v>0.04319474919910827</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1146266770.723767</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3631635734.798492</v>
+        <v>3063868554.797855</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1352602072801514</v>
+        <v>0.1277736751561863</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0524085295987184</v>
+        <v>0.05293047495769648</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>28</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1815817891.040174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1180827872.953326</v>
+        <v>1019819847.445196</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1428575686275478</v>
+        <v>0.1426835184028779</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03578970638706519</v>
+        <v>0.045068732843792</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>590413976.1244943</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4150245319.205039</v>
+        <v>3828953544.930052</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1417654543612657</v>
+        <v>0.09581564174543032</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02625534363649096</v>
+        <v>0.02832816275549435</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>30</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2075122617.428447</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1128123086.322761</v>
+        <v>1442147116.070531</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0766473671543824</v>
+        <v>0.09242000601262938</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02694884593956432</v>
+        <v>0.02697915652235526</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>564061577.6024297</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1216119566.648067</v>
+        <v>898463889.0712612</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1044993244867626</v>
+        <v>0.07773529962337306</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03776333732666254</v>
+        <v>0.03445838026943186</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>608059808.2267791</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4675836889.484301</v>
+        <v>3687759081.002627</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1417070020147857</v>
+        <v>0.1405501849265456</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01670297661658119</v>
+        <v>0.01786107272329059</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>24</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2337918421.281363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2536820020.027678</v>
+        <v>3849142271.339438</v>
       </c>
       <c r="F28" t="n">
-        <v>0.150346775262315</v>
+        <v>0.1249633651469194</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03027670612115265</v>
+        <v>0.0389013736907424</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>33</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1268409980.993178</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5777510111.648926</v>
+        <v>4779590925.174275</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1308676812422879</v>
+        <v>0.09564499301630594</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03406074092056053</v>
+        <v>0.03223123872989463</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>46</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2888754949.471728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2393911809.650877</v>
+        <v>2028755606.521528</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1173710922629001</v>
+        <v>0.1373085028938546</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03783009187114313</v>
+        <v>0.03216437601883033</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1196955987.056792</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>953469808.2914785</v>
+        <v>994554296.0618218</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08795884218225597</v>
+        <v>0.1109060116302626</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05053585963251651</v>
+        <v>0.03755466756946814</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>476734913.5671312</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1205056344.703715</v>
+        <v>1815074820.752176</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09296279313108553</v>
+        <v>0.1116658574755009</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03640104292844228</v>
+        <v>0.02703232947327501</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>602528179.5604939</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2588995864.544532</v>
+        <v>1946667855.061489</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1287349615268777</v>
+        <v>0.1578167114342828</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05519145886275858</v>
+        <v>0.0418397828042842</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>28</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1294497962.831785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1430705606.658305</v>
+        <v>1285892231.83688</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07502019628582508</v>
+        <v>0.07530445675522303</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02825815832022457</v>
+        <v>0.01878085297943018</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>715352770.4716969</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>969964684.0697316</v>
+        <v>1274426068.497516</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07683821857517828</v>
+        <v>0.08086160076845639</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04223043994069137</v>
+        <v>0.04495346986989822</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>484982367.1373947</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3225102143.166773</v>
+        <v>3004763852.960626</v>
       </c>
       <c r="F36" t="n">
-        <v>0.166013622448402</v>
+        <v>0.1329549444365076</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02160478346707959</v>
+        <v>0.01923432345327266</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>26</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1612551035.379043</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2682861572.629399</v>
+        <v>1978717441.111031</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09132594160166951</v>
+        <v>0.07089450000346709</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02682476096925857</v>
+        <v>0.04016477740926195</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>26</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1341430907.457814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1761895130.373752</v>
+        <v>2034312315.572829</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08615207708029998</v>
+        <v>0.08925043203401516</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02524301801770978</v>
+        <v>0.02809577701766525</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>880947577.3831453</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1427881649.580483</v>
+        <v>1411891987.797697</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1918820347085491</v>
+        <v>0.1341970100342748</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02056681125422105</v>
+        <v>0.02462755375351395</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>713940906.1315447</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1107100466.890316</v>
+        <v>1712378600.589704</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1119868932536672</v>
+        <v>0.1550059351966254</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04909092793999757</v>
+        <v>0.04001506822544929</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>553550297.9503285</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2273500139.665442</v>
+        <v>2773109237.080156</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1099144587147695</v>
+        <v>0.131297640714822</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03354590586150986</v>
+        <v>0.04132475131985412</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>24</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1136750117.254556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4259892682.996216</v>
+        <v>3116236898.651618</v>
       </c>
       <c r="F42" t="n">
-        <v>0.116563995050762</v>
+        <v>0.08567081886214561</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03387759047763576</v>
+        <v>0.04014521170564184</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>34</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2129946388.59889</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2161927174.314134</v>
+        <v>2514316661.101663</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1424046268040126</v>
+        <v>0.1675683523787795</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0228571479552954</v>
+        <v>0.01811144919184262</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>32</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1080963669.763932</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1737416057.371523</v>
+        <v>1881885774.01526</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0760535572234198</v>
+        <v>0.08269142407343061</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0259191845895556</v>
+        <v>0.02352891473576761</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>868708082.5620494</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1670476344.666544</v>
+        <v>2453499724.469267</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1214781067282804</v>
+        <v>0.1176280669276007</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05017808879697157</v>
+        <v>0.05227855679135653</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>835238129.9359267</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4275394231.515503</v>
+        <v>5249767573.673637</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1185329636585695</v>
+        <v>0.1276972223922682</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05289280745702388</v>
+        <v>0.04084908712126933</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>37</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2137697100.985471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4969078692.623876</v>
+        <v>4230865940.816664</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1309331356673932</v>
+        <v>0.1762764771414929</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05202857918240879</v>
+        <v>0.05905186172469568</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>27</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2484539400.282984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3930915416.286234</v>
+        <v>3840914474.233727</v>
       </c>
       <c r="F48" t="n">
-        <v>0.109605634498081</v>
+        <v>0.0841561016630796</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03851455367522393</v>
+        <v>0.02836354503957515</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>37</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1965457746.452297</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1644049303.392697</v>
+        <v>1654953653.315607</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1362467420115521</v>
+        <v>0.1467662153186614</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04413226546240012</v>
+        <v>0.03606898868940457</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>822024661.2651201</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3590910970.719423</v>
+        <v>4120231125.224032</v>
       </c>
       <c r="F50" t="n">
-        <v>0.149278970712545</v>
+        <v>0.175702194040659</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04589341703458353</v>
+        <v>0.04391014344369441</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>35</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1795455503.07997</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1274609831.36216</v>
+        <v>1435790783.737361</v>
       </c>
       <c r="F51" t="n">
-        <v>0.164907803603552</v>
+        <v>0.1766931845667662</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04721400536500613</v>
+        <v>0.03365007176192379</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>637304955.0835812</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4007703085.216116</v>
+        <v>4672490200.805893</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1325417116551201</v>
+        <v>0.1294318617031753</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04295672730532703</v>
+        <v>0.04288480516620338</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>42</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2003851598.567731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2981285895.461018</v>
+        <v>3804677926.973375</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1943647067090836</v>
+        <v>0.1611539094854203</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02151822142261439</v>
+        <v>0.03439557624815014</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>29</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1490642981.418996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3023705978.627944</v>
+        <v>3789903429.028193</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1247168538271267</v>
+        <v>0.1587510589124779</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03860195723186484</v>
+        <v>0.03196008867806065</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>35</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1511852976.670451</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4993476230.794609</v>
+        <v>4796863861.292318</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1883067200597039</v>
+        <v>0.1355727706452967</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02629807633691597</v>
+        <v>0.02505943258282228</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>27</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2496738134.097669</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1523765849.128992</v>
+        <v>1643136355.57014</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1146328418607316</v>
+        <v>0.1535726496225665</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05324803421597262</v>
+        <v>0.05728116466803938</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>761882963.2332042</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4177110696.747659</v>
+        <v>4322087258.757984</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1753462278334729</v>
+        <v>0.1340978162048403</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0216946075914275</v>
+        <v>0.02475633643944924</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>33</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2088555451.530238</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1308559746.978328</v>
+        <v>1291801846.647718</v>
       </c>
       <c r="F58" t="n">
-        <v>0.155869744893962</v>
+        <v>0.1370603669737478</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03409263876560313</v>
+        <v>0.02449192332478023</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>654279922.0182515</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5236639206.418382</v>
+        <v>3686642680.113458</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1265166872801509</v>
+        <v>0.09482314647148954</v>
       </c>
       <c r="G59" t="n">
-        <v>0.037311750035643</v>
+        <v>0.04098158642305293</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>30</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2618319519.444155</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3547711266.501954</v>
+        <v>2640276645.773691</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1909968808661124</v>
+        <v>0.17618203020719</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0293168430176174</v>
+        <v>0.02434066385403223</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>33</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1773855760.968514</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3207684999.32171</v>
+        <v>2978763043.363025</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1271620513543336</v>
+        <v>0.1176399451382095</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02112234760278251</v>
+        <v>0.02031850086775254</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>36</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1603842460.485389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2014250289.438597</v>
+        <v>1346738533.672772</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1678424561854036</v>
+        <v>0.1525849767281553</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04868166273212302</v>
+        <v>0.03516523264085909</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1007125204.879496</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5274908538.214683</v>
+        <v>4297700478.343042</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0662984636568025</v>
+        <v>0.06617735762536404</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03503184114377262</v>
+        <v>0.04575791136219948</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>29</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2637454274.532966</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5256647967.660496</v>
+        <v>5398028445.102594</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1268983091259393</v>
+        <v>0.1729710525310566</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02777049326412299</v>
+        <v>0.03060681941088099</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>32</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2628324108.01817</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5830774287.139036</v>
+        <v>4361089018.009307</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1246837389844788</v>
+        <v>0.1355028148446159</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02265727561902696</v>
+        <v>0.02636458382118128</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>37</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2915387052.859004</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5444870239.517299</v>
+        <v>4522821476.058939</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1368260666339451</v>
+        <v>0.1101988241076914</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04277264397531481</v>
+        <v>0.03374678541956953</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>30</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2722435170.692513</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3253617738.243656</v>
+        <v>2823818440.511953</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07655952363038497</v>
+        <v>0.1009980071438811</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03693889714439409</v>
+        <v>0.0356528580969257</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>33</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1626808865.877391</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4905120994.807477</v>
+        <v>5790752536.199476</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1460355230663779</v>
+        <v>0.1261093447260943</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05101674621154315</v>
+        <v>0.03790887071989765</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>33</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2452560547.977295</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1741907925.91044</v>
+        <v>2478415807.708966</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1207918164631045</v>
+        <v>0.1837456686439656</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05119630105611221</v>
+        <v>0.05172337681303898</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>870953934.4630142</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2966606340.047808</v>
+        <v>2728310560.345996</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06214109994312082</v>
+        <v>0.07999893370265089</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04681295393433903</v>
+        <v>0.0328455615802327</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>30</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1483303144.781617</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5123813621.510898</v>
+        <v>4934094320.127871</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1526605830061892</v>
+        <v>0.1245828302809777</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02468568713899177</v>
+        <v>0.02884628299358807</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>37</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2561906925.623594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1956546084.607582</v>
+        <v>1744532716.302144</v>
       </c>
       <c r="F72" t="n">
-        <v>0.105724543638394</v>
+        <v>0.06726819582276961</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05053300168534359</v>
+        <v>0.05324266721518033</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>978272995.5974699</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3350805795.497839</v>
+        <v>2206121509.602366</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09141690382532246</v>
+        <v>0.1053757943841342</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04261306409431788</v>
+        <v>0.05174047235598252</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>39</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1675402861.560895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2743284691.570979</v>
+        <v>2861287200.955367</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1821759161556732</v>
+        <v>0.13750548277612</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02922872040927555</v>
+        <v>0.02269313378106677</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>35</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1371642433.298546</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2030064088.590708</v>
+        <v>1771946862.284336</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1074063545737524</v>
+        <v>0.1506362014319459</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03123826709712003</v>
+        <v>0.03735624976236644</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1015032005.551327</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5186784679.517875</v>
+        <v>4179296534.073777</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1221367923239806</v>
+        <v>0.095186455593769</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02537552481120567</v>
+        <v>0.03003206160710537</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>22</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2593392374.207786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1897632831.424649</v>
+        <v>1888586231.421715</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1436872052679986</v>
+        <v>0.1183040814127506</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02448389101417917</v>
+        <v>0.01985398065116386</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>948816462.0331813</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4044816128.504316</v>
+        <v>3881106615.630518</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1174649043064802</v>
+        <v>0.1284912471569427</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04768159070482022</v>
+        <v>0.05312444232751039</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>36</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2022408026.719977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1631624357.289983</v>
+        <v>1873769628.645627</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1588513398268021</v>
+        <v>0.1395700646018585</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02922953249836457</v>
+        <v>0.02590490452365351</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>815812235.7775682</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3590681364.06601</v>
+        <v>3511379192.229671</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0891912783791888</v>
+        <v>0.08518553501932218</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03193870635844918</v>
+        <v>0.03257258165106019</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>21</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1795340661.094415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4927001636.409153</v>
+        <v>4478892075.57155</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09919471274581947</v>
+        <v>0.1219117846745517</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02660165384654466</v>
+        <v>0.03120479445574298</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>24</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2463500815.753094</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4439694860.805695</v>
+        <v>5276841849.750655</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1730169607698863</v>
+        <v>0.1364633996070881</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02488328085205647</v>
+        <v>0.0235626205413047</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>39</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2219847445.568455</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2120732174.325001</v>
+        <v>1596552398.95506</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1571099614409856</v>
+        <v>0.1087151556063584</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02736674385558673</v>
+        <v>0.03212446953383497</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1060366087.395897</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1744594240.49542</v>
+        <v>1785823347.737911</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09555150506086774</v>
+        <v>0.07957589439396905</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0375535149246974</v>
+        <v>0.04605682254962556</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
         <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>872297162.5753715</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2478951089.677209</v>
+        <v>2999557616.079407</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1563992526059251</v>
+        <v>0.1596462926407975</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04033292837904336</v>
+        <v>0.0520536046942854</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>37</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1239475547.400804</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2325656830.567148</v>
+        <v>2404551612.726327</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1710087580022297</v>
+        <v>0.1052099113787811</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02493144206626412</v>
+        <v>0.02520099915168741</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>10</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1162828488.134779</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>932866185.6080928</v>
+        <v>1463016321.321348</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1492425105392724</v>
+        <v>0.1617627065586649</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04240108741121863</v>
+        <v>0.03940409033698511</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>466433079.8518121</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2782019162.980214</v>
+        <v>3633645274.31058</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1340163085496906</v>
+        <v>0.1684500798194499</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03546076343524237</v>
+        <v>0.02597393345569535</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>41</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1391009590.329104</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2997789670.949298</v>
+        <v>2768559541.21476</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1335266980846586</v>
+        <v>0.1337323033637807</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03881149349687287</v>
+        <v>0.03919638814064642</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>35</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1498894873.678011</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1521777052.252566</v>
+        <v>1334738362.768646</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1372476418647495</v>
+        <v>0.1080914587469909</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05253087391202591</v>
+        <v>0.03922319653009482</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>760888508.7709191</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1451703711.943082</v>
+        <v>1599625476.860709</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1770100177061008</v>
+        <v>0.1623811837556517</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0573332255028605</v>
+        <v>0.05947835499086155</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>725851901.2416631</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1966140514.332643</v>
+        <v>2829398569.07007</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07265746228644701</v>
+        <v>0.09609074738220282</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04549771673237915</v>
+        <v>0.04535717670637311</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>21</v>
-      </c>
-      <c r="J92" t="n">
-        <v>983070200.7255384</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3331500025.400996</v>
+        <v>3637680427.321957</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1349685845170211</v>
+        <v>0.09201844049217739</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03817511411728985</v>
+        <v>0.0450940646562154</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>30</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1665750056.49572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2178893863.041513</v>
+        <v>2417799695.596498</v>
       </c>
       <c r="F94" t="n">
-        <v>0.149343193375995</v>
+        <v>0.1046396523174499</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03379794371764806</v>
+        <v>0.04127066026657682</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1089446953.103098</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2393163709.001551</v>
+        <v>3046876653.510266</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1351537910117244</v>
+        <v>0.09372604890599082</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0469330369503566</v>
+        <v>0.036665755379594</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>24</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1196581898.283703</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2202976850.544078</v>
+        <v>1854236566.517477</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1060686446265307</v>
+        <v>0.1248083541188767</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04472957260425184</v>
+        <v>0.04477440803666945</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1101488390.504767</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5230876460.04237</v>
+        <v>3750652713.035161</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1600990547646562</v>
+        <v>0.1658597646219793</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02186275822728516</v>
+        <v>0.02297831915844015</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>33</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2615438385.306172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3904184257.065636</v>
+        <v>3885046337.261352</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1176292528412245</v>
+        <v>0.1149132214629316</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02962966240234561</v>
+        <v>0.02420384375598037</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>27</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1952092174.454989</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2320108815.388687</v>
+        <v>3173884165.135614</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1470279813524163</v>
+        <v>0.08990261564089545</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02985483824865037</v>
+        <v>0.02756622560829818</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>32</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1160054344.288484</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3853697105.526407</v>
+        <v>4654281294.65736</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1470514320581056</v>
+        <v>0.1181343494427212</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02211511057217019</v>
+        <v>0.01808414914349614</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>31</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1926848611.69548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2230431735.947888</v>
+        <v>2825856986.366477</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1723181300103053</v>
+        <v>0.144791519227102</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05062736604536082</v>
+        <v>0.04497568282948945</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>43</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1115215855.292183</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_102.xlsx
+++ b/output/fit_clients/fit_round_102.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1620060470.63436</v>
+        <v>2321332801.227143</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07033731643612316</v>
+        <v>0.08476024392947043</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04329640037460202</v>
+        <v>0.03855665550833619</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2492719483.888736</v>
+        <v>2592815354.991112</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1641701150358503</v>
+        <v>0.1142937608701314</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05030677006816414</v>
+        <v>0.03113189570491493</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3286499747.80875</v>
+        <v>3183931535.151038</v>
       </c>
       <c r="F4" t="n">
-        <v>0.147830675086137</v>
+        <v>0.1532735373450624</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02782329451288157</v>
+        <v>0.03580700451815709</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2724814592.66737</v>
+        <v>4154437384.832716</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08884267346111242</v>
+        <v>0.1046562842054202</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03855352775005371</v>
+        <v>0.0397813837456556</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2110599402.138188</v>
+        <v>2157472242.907818</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09867888430866305</v>
+        <v>0.1132875519298778</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04847478286846437</v>
+        <v>0.04733608683012096</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1988335483.371479</v>
+        <v>2426681958.013744</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06788257719003164</v>
+        <v>0.08764146566002337</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03160624846552589</v>
+        <v>0.04195833305571722</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2900417631.517852</v>
+        <v>3307417730.472828</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2120135132409076</v>
+        <v>0.2102944310888553</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02507496457985409</v>
+        <v>0.02926190362561436</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2004201979.168417</v>
+        <v>2066758087.95617</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1227669108748795</v>
+        <v>0.1715961088688842</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03264950428325375</v>
+        <v>0.036278572337907</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5177638561.426985</v>
+        <v>4959261741.988806</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1313921106491254</v>
+        <v>0.1327838196283044</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04949376228905884</v>
+        <v>0.04108876225582795</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3268176519.428621</v>
+        <v>3779884182.021095</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1280929876213939</v>
+        <v>0.1359465242518129</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04001219820699769</v>
+        <v>0.0349970161399791</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3312849815.947619</v>
+        <v>2700066085.201444</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1453743249039253</v>
+        <v>0.1869966049982693</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05385824711931121</v>
+        <v>0.04535242813279004</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3355521796.574426</v>
+        <v>4799653636.842336</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07431318506323285</v>
+        <v>0.07719549403650641</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0292623108518724</v>
+        <v>0.02692890426971662</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2532326433.789375</v>
+        <v>3773670127.912818</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1888613587593777</v>
+        <v>0.146978302189222</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03397086316462037</v>
+        <v>0.03119557525476587</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1761060587.356228</v>
+        <v>1205360819.385278</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09954051310137989</v>
+        <v>0.09938965425735347</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03004688721272033</v>
+        <v>0.04796431562050802</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2823399342.543982</v>
+        <v>2695132863.69569</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1051146730177785</v>
+        <v>0.07988797422206098</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04724979497754065</v>
+        <v>0.05027967343620456</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3589130600.91532</v>
+        <v>4615157956.415354</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1426594869052214</v>
+        <v>0.1322771265814675</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03378199842606518</v>
+        <v>0.04291281525784146</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3061523977.486529</v>
+        <v>2764916340.258038</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1531023275997966</v>
+        <v>0.1194548794470085</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02392315947490917</v>
+        <v>0.02247927744846811</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1128227926.337866</v>
+        <v>1377498248.544174</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1861495914018071</v>
+        <v>0.1178342523271845</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02388571130514217</v>
+        <v>0.02582312278987603</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2059013555.049924</v>
+        <v>2094082521.35058</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1522480971442937</v>
+        <v>0.1033006016703122</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02796392282196534</v>
+        <v>0.02103970840959356</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1774652941.052556</v>
+        <v>1657586765.19041</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0960955066231497</v>
+        <v>0.101328452192557</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04319474919910827</v>
+        <v>0.03025570867914162</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3063868554.797855</v>
+        <v>3610383211.396247</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1277736751561863</v>
+        <v>0.1382322627495694</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05293047495769648</v>
+        <v>0.03653376040413748</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1019819847.445196</v>
+        <v>1027437157.486537</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1426835184028779</v>
+        <v>0.186013074106603</v>
       </c>
       <c r="G23" t="n">
-        <v>0.045068732843792</v>
+        <v>0.03951148317893051</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3828953544.930052</v>
+        <v>3024832321.342309</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09581564174543032</v>
+        <v>0.1122689021209577</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02832816275549435</v>
+        <v>0.03516810594811175</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,16 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1442147116.070531</v>
+        <v>915143259.6742269</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09242000601262938</v>
+        <v>0.09577437745790199</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02697915652235526</v>
+        <v>0.02470859217997771</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>898463889.0712612</v>
+        <v>1078186068.758324</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07773529962337306</v>
+        <v>0.08546299430977319</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03445838026943186</v>
+        <v>0.03248359136673711</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3687759081.002627</v>
+        <v>3770305803.38338</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1405501849265456</v>
+        <v>0.1445723701293767</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01786107272329059</v>
+        <v>0.025342211530094</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3849142271.339438</v>
+        <v>2521433333.321501</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1249633651469194</v>
+        <v>0.1452855253715941</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0389013736907424</v>
+        <v>0.04682465689490137</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4779590925.174275</v>
+        <v>4303766085.234977</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09564499301630594</v>
+        <v>0.1388094328239508</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03223123872989463</v>
+        <v>0.03232530988549011</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2028755606.521528</v>
+        <v>2262027033.446217</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1373085028938546</v>
+        <v>0.09586264383751948</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03216437601883033</v>
+        <v>0.03036235414650842</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>994554296.0618218</v>
+        <v>1155055780.546991</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1109060116302626</v>
+        <v>0.08530357632034533</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03755466756946814</v>
+        <v>0.03647837681835956</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1815074820.752176</v>
+        <v>1605294039.241241</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1116658574755009</v>
+        <v>0.10011540346609</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02703232947327501</v>
+        <v>0.03586688619414582</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1946667855.061489</v>
+        <v>2894646428.800653</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1578167114342828</v>
+        <v>0.2010891278646499</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0418397828042842</v>
+        <v>0.05443575186915724</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1285892231.83688</v>
+        <v>1575856137.792959</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07530445675522303</v>
+        <v>0.08588509098506111</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01878085297943018</v>
+        <v>0.02607309308569727</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1274426068.497516</v>
+        <v>1302932390.084454</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08086160076845639</v>
+        <v>0.07825404853396777</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04495346986989822</v>
+        <v>0.04349304396671515</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3004763852.960626</v>
+        <v>2384619447.097556</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1329549444365076</v>
+        <v>0.1312779146575563</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01923432345327266</v>
+        <v>0.01802653014018984</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1978717441.111031</v>
+        <v>1957380085.89096</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07089450000346709</v>
+        <v>0.08336294346128977</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04016477740926195</v>
+        <v>0.04096528142284052</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2034312315.572829</v>
+        <v>1656273577.669963</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08925043203401516</v>
+        <v>0.08455194968433954</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02809577701766525</v>
+        <v>0.03634020886252656</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1411891987.797697</v>
+        <v>1517980862.164988</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1341970100342748</v>
+        <v>0.145562839026764</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02462755375351395</v>
+        <v>0.0210015009192528</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1712378600.589704</v>
+        <v>1603386361.646116</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1550059351966254</v>
+        <v>0.1523550234962299</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04001506822544929</v>
+        <v>0.05546533695364207</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2773109237.080156</v>
+        <v>2146852029.904338</v>
       </c>
       <c r="F41" t="n">
-        <v>0.131297640714822</v>
+        <v>0.1209027634462792</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04132475131985412</v>
+        <v>0.03536936903905566</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3116236898.651618</v>
+        <v>4193285026.58617</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08567081886214561</v>
+        <v>0.1205216113114492</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04014521170564184</v>
+        <v>0.0400265737306606</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2514316661.101663</v>
+        <v>2015538091.564453</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1675683523787795</v>
+        <v>0.1796631759303409</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01811144919184262</v>
+        <v>0.01632786165965851</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1881885774.01526</v>
+        <v>2016195056.737045</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08269142407343061</v>
+        <v>0.06201427747188054</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02352891473576761</v>
+        <v>0.0228361181455</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2453499724.469267</v>
+        <v>1970462864.458599</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1176280669276007</v>
+        <v>0.1307550464489797</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05227855679135653</v>
+        <v>0.0433280720348724</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5249767573.673637</v>
+        <v>3539650272.617301</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1276972223922682</v>
+        <v>0.1400276034122248</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04084908712126933</v>
+        <v>0.03955752744125498</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4230865940.816664</v>
+        <v>3893092254.380473</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1762764771414929</v>
+        <v>0.1433811753983348</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05905186172469568</v>
+        <v>0.03659151967847529</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3840914474.233727</v>
+        <v>2907511225.066301</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0841561016630796</v>
+        <v>0.06718781853063409</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02836354503957515</v>
+        <v>0.02820552664247899</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1654953653.315607</v>
+        <v>1624523819.879821</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1467662153186614</v>
+        <v>0.1831298469583469</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03606898868940457</v>
+        <v>0.04381960422872932</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4120231125.224032</v>
+        <v>2684616008.54518</v>
       </c>
       <c r="F50" t="n">
-        <v>0.175702194040659</v>
+        <v>0.1305898449340091</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04391014344369441</v>
+        <v>0.0475098305421385</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1435790783.737361</v>
+        <v>991368543.293306</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1766931845667662</v>
+        <v>0.191489890418831</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03365007176192379</v>
+        <v>0.05259471735223138</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4672490200.805893</v>
+        <v>4129624171.110291</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1294318617031753</v>
+        <v>0.09616490892041241</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04288480516620338</v>
+        <v>0.0512061904179436</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3804677926.973375</v>
+        <v>3561066077.992524</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1611539094854203</v>
+        <v>0.1894143267276852</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03439557624815014</v>
+        <v>0.03129194327964806</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3789903429.028193</v>
+        <v>3314039124.644949</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1587510589124779</v>
+        <v>0.1359180774126391</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03196008867806065</v>
+        <v>0.04516048711788453</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4796863861.292318</v>
+        <v>4906742802.549252</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1355727706452967</v>
+        <v>0.1896684828753503</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02505943258282228</v>
+        <v>0.02405408381268244</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,16 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1643136355.57014</v>
+        <v>1386751777.765538</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1535726496225665</v>
+        <v>0.1638209253695061</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05728116466803938</v>
+        <v>0.04921011353335781</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4322087258.757984</v>
+        <v>4511971146.931008</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1340978162048403</v>
+        <v>0.1658367583666278</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02475633643944924</v>
+        <v>0.02741673839204192</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1291801846.647718</v>
+        <v>1887178246.661779</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1370603669737478</v>
+        <v>0.1539804843274644</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02449192332478023</v>
+        <v>0.03193749435609806</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3686642680.113458</v>
+        <v>4051320150.36252</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09482314647148954</v>
+        <v>0.1282121758543213</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04098158642305293</v>
+        <v>0.04627983317642759</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2640276645.773691</v>
+        <v>3136689956.281595</v>
       </c>
       <c r="F60" t="n">
-        <v>0.17618203020719</v>
+        <v>0.1471195066922192</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02434066385403223</v>
+        <v>0.02559765095515816</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2978763043.363025</v>
+        <v>2091477856.918227</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1176399451382095</v>
+        <v>0.15416668350713</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02031850086775254</v>
+        <v>0.02516636439973728</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1346738533.672772</v>
+        <v>1687353411.063745</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1525849767281553</v>
+        <v>0.1363063507266885</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03516523264085909</v>
+        <v>0.04551189839941998</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4297700478.343042</v>
+        <v>4060988342.722373</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06617735762536404</v>
+        <v>0.08778120125251664</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04575791136219948</v>
+        <v>0.03815557043394329</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5398028445.102594</v>
+        <v>4995217293.085869</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1729710525310566</v>
+        <v>0.1282849225260086</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03060681941088099</v>
+        <v>0.02814665341326495</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4361089018.009307</v>
+        <v>4724073977.226155</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1355028148446159</v>
+        <v>0.1142727301534824</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02636458382118128</v>
+        <v>0.02577081797514232</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4522821476.058939</v>
+        <v>4057823479.242227</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1101988241076914</v>
+        <v>0.1485763860346913</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03374678541956953</v>
+        <v>0.04824700581427672</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2823818440.511953</v>
+        <v>2462473663.245179</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1009980071438811</v>
+        <v>0.07036683326492339</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0356528580969257</v>
+        <v>0.03340271330760983</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5790752536.199476</v>
+        <v>5313282402.921277</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1261093447260943</v>
+        <v>0.1427248282322712</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03790887071989765</v>
+        <v>0.0376695489188472</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2478415807.708966</v>
+        <v>2277230241.313423</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1837456686439656</v>
+        <v>0.1231240464571284</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05172337681303898</v>
+        <v>0.04226447595870889</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2728310560.345996</v>
+        <v>2858744619.011823</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07999893370265089</v>
+        <v>0.0932154597505718</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0328455615802327</v>
+        <v>0.03129004901240821</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4934094320.127871</v>
+        <v>5309940069.668958</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1245828302809777</v>
+        <v>0.1378872536786559</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02884628299358807</v>
+        <v>0.03071082924319387</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1744532716.302144</v>
+        <v>1378343307.98118</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06726819582276961</v>
+        <v>0.07904514925836675</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05324266721518033</v>
+        <v>0.05259023347254899</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2206121509.602366</v>
+        <v>2895300059.189479</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1053757943841342</v>
+        <v>0.07085488750743316</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05174047235598252</v>
+        <v>0.03858424463038538</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2861287200.955367</v>
+        <v>3728008233.660709</v>
       </c>
       <c r="F74" t="n">
-        <v>0.13750548277612</v>
+        <v>0.1119387465032596</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02269313378106677</v>
+        <v>0.0330285772569148</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1771946862.284336</v>
+        <v>2277345585.410479</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1506362014319459</v>
+        <v>0.1221573776910994</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03735624976236644</v>
+        <v>0.03796540734116112</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4179296534.073777</v>
+        <v>3692768136.627483</v>
       </c>
       <c r="F76" t="n">
-        <v>0.095186455593769</v>
+        <v>0.106289252709981</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03003206160710537</v>
+        <v>0.02145323113803041</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1888586231.421715</v>
+        <v>2251995403.875683</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1183040814127506</v>
+        <v>0.1540143405401331</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01985398065116386</v>
+        <v>0.0293616604382508</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3881106615.630518</v>
+        <v>4702133770.269771</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1284912471569427</v>
+        <v>0.1371734817080497</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05312444232751039</v>
+        <v>0.04254920238856279</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1873769628.645627</v>
+        <v>1571121050.948745</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1395700646018585</v>
+        <v>0.1521781288625827</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02590490452365351</v>
+        <v>0.03753286234876452</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3511379192.229671</v>
+        <v>4223732751.576768</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08518553501932218</v>
+        <v>0.07447704121102681</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03257258165106019</v>
+        <v>0.0234107095412717</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4478892075.57155</v>
+        <v>4540834272.443565</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1219117846745517</v>
+        <v>0.1355405959602325</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03120479445574298</v>
+        <v>0.02881896336569026</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5276841849.750655</v>
+        <v>3774736498.491218</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1364633996070881</v>
+        <v>0.2079823593752824</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0235626205413047</v>
+        <v>0.02490563539550553</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1596552398.95506</v>
+        <v>1705899708.435941</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1087151556063584</v>
+        <v>0.1007225907492536</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03212446953383497</v>
+        <v>0.04544393879856996</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1785823347.737911</v>
+        <v>1569066705.108578</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07957589439396905</v>
+        <v>0.0906933186584023</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04605682254962556</v>
+        <v>0.03641204380142425</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2999557616.079407</v>
+        <v>3146048561.215276</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1596462926407975</v>
+        <v>0.163899677450368</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0520536046942854</v>
+        <v>0.04044398193578002</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2404551612.726327</v>
+        <v>2405273563.839734</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1052099113787811</v>
+        <v>0.1684297880721768</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02520099915168741</v>
+        <v>0.01899307012782651</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1463016321.321348</v>
+        <v>1481712124.254776</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1617627065586649</v>
+        <v>0.1179192777865615</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03940409033698511</v>
+        <v>0.04297335338938728</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3633645274.31058</v>
+        <v>3036910790.065213</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1684500798194499</v>
+        <v>0.1114590636736991</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02597393345569535</v>
+        <v>0.02580899911388657</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2768559541.21476</v>
+        <v>3490125614.472468</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1337323033637807</v>
+        <v>0.1440934223477646</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03919638814064642</v>
+        <v>0.03274845529347566</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1334738362.768646</v>
+        <v>2128856082.997804</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1080914587469909</v>
+        <v>0.1323707611385298</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03922319653009482</v>
+        <v>0.05447087905384637</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1599625476.860709</v>
+        <v>1651505846.063173</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1623811837556517</v>
+        <v>0.1762056564330406</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05947835499086155</v>
+        <v>0.0546328842721051</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2829398569.07007</v>
+        <v>2720569300.952254</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09609074738220282</v>
+        <v>0.09960513575276525</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04535717670637311</v>
+        <v>0.02964424642630777</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3637680427.321957</v>
+        <v>4213153957.536768</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09201844049217739</v>
+        <v>0.09740494294947215</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0450940646562154</v>
+        <v>0.04742678131622133</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2417799695.596498</v>
+        <v>2495804253.001868</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1046396523174499</v>
+        <v>0.108547833692286</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04127066026657682</v>
+        <v>0.03145475163654082</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3046876653.510266</v>
+        <v>2557140114.938446</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09372604890599082</v>
+        <v>0.1255551635973212</v>
       </c>
       <c r="G95" t="n">
-        <v>0.036665755379594</v>
+        <v>0.03263723237570524</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1854236566.517477</v>
+        <v>1717628078.050905</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1248083541188767</v>
+        <v>0.1021952562721313</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04477440803666945</v>
+        <v>0.04706858976514495</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3750652713.035161</v>
+        <v>3838459458.681427</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1658597646219793</v>
+        <v>0.1655160172499839</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02297831915844015</v>
+        <v>0.0202765304662584</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3885046337.261352</v>
+        <v>3835538817.919852</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1149132214629316</v>
+        <v>0.1050364378546369</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02420384375598037</v>
+        <v>0.0215557299475641</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3173884165.135614</v>
+        <v>2609107824.081986</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08990261564089545</v>
+        <v>0.0992080500379045</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02756622560829818</v>
+        <v>0.03364003871817596</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4654281294.65736</v>
+        <v>3960358637.669657</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1181343494427212</v>
+        <v>0.1418242654322676</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01808414914349614</v>
+        <v>0.01754638388959407</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2825856986.366477</v>
+        <v>3257451955.879378</v>
       </c>
       <c r="F101" t="n">
-        <v>0.144791519227102</v>
+        <v>0.1413907900945696</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04497568282948945</v>
+        <v>0.05256018422040155</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_102.xlsx
+++ b/output/fit_clients/fit_round_102.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2321332801.227143</v>
+        <v>2364665684.947767</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08476024392947043</v>
+        <v>0.08477742261203096</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03855665550833619</v>
+        <v>0.03923623497015753</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2592815354.991112</v>
+        <v>1985331398.047925</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1142937608701314</v>
+        <v>0.1488688863894806</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03113189570491493</v>
+        <v>0.0456943082659262</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3183931535.151038</v>
+        <v>3780469902.230925</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1532735373450624</v>
+        <v>0.1535863238535737</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03580700451815709</v>
+        <v>0.02900608392668398</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>63</v>
+      </c>
+      <c r="J4" t="n">
+        <v>102</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4154437384.832716</v>
+        <v>4163659381.040167</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1046562842054202</v>
+        <v>0.06871397464524287</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0397813837456556</v>
+        <v>0.04682828215784651</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>42</v>
+      </c>
+      <c r="J5" t="n">
+        <v>102</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2157472242.907818</v>
+        <v>2487010901.831665</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1132875519298778</v>
+        <v>0.1161966137939999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04733608683012096</v>
+        <v>0.05374714628849026</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2426681958.013744</v>
+        <v>2772616658.980291</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08764146566002337</v>
+        <v>0.1008305866715373</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04195833305571722</v>
+        <v>0.04653124979652148</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3307417730.472828</v>
+        <v>3518300692.33226</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2102944310888553</v>
+        <v>0.1574151445215212</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02926190362561436</v>
+        <v>0.03285479317091183</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>28</v>
+      </c>
+      <c r="J8" t="n">
+        <v>101</v>
+      </c>
+      <c r="K8" t="n">
+        <v>153.7755409990482</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2066758087.95617</v>
+        <v>1451351340.22786</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1715961088688842</v>
+        <v>0.1202077776411321</v>
       </c>
       <c r="G9" t="n">
-        <v>0.036278572337907</v>
+        <v>0.02741725168722726</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +783,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4959261741.988806</v>
+        <v>5219672617.976894</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1327838196283044</v>
+        <v>0.1578900347908346</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04108876225582795</v>
+        <v>0.03874657617057475</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>94</v>
+      </c>
+      <c r="J10" t="n">
+        <v>102</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3779884182.021095</v>
+        <v>4073075728.864665</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1359465242518129</v>
+        <v>0.1854515785935595</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0349970161399791</v>
+        <v>0.03303916952216848</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>43</v>
+      </c>
+      <c r="J11" t="n">
+        <v>102</v>
+      </c>
+      <c r="K11" t="n">
+        <v>176.4670866518939</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2700066085.201444</v>
+        <v>2115220387.63028</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1869966049982693</v>
+        <v>0.1880109652167983</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04535242813279004</v>
+        <v>0.04227554003348198</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4799653636.842336</v>
+        <v>3619558759.39559</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07719549403650641</v>
+        <v>0.08684824310564568</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02692890426971662</v>
+        <v>0.03047757467104154</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>51</v>
+      </c>
+      <c r="J13" t="n">
+        <v>101</v>
+      </c>
+      <c r="K13" t="n">
+        <v>155.1346288781677</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +927,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3773670127.912818</v>
+        <v>3342927754.227882</v>
       </c>
       <c r="F14" t="n">
-        <v>0.146978302189222</v>
+        <v>0.1460955476454295</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03119557525476587</v>
+        <v>0.0317282046637729</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>20</v>
+      </c>
+      <c r="J14" t="n">
+        <v>101</v>
+      </c>
+      <c r="K14" t="n">
+        <v>133.5661567887354</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1205360819.385278</v>
+        <v>1625761344.074763</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09938965425735347</v>
+        <v>0.0683934315988131</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04796431562050802</v>
+        <v>0.04725044000498833</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2695132863.69569</v>
+        <v>1820823935.916636</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07988797422206098</v>
+        <v>0.07173780226801901</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05027967343620456</v>
+        <v>0.04934870150860585</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4615157956.415354</v>
+        <v>3359813347.496109</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1322771265814675</v>
+        <v>0.1585985821637585</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04291281525784146</v>
+        <v>0.03316446520088313</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>49</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2764916340.258038</v>
+        <v>2662367659.2009</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1194548794470085</v>
+        <v>0.131070586319352</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02247927744846811</v>
+        <v>0.0305877020585309</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>27</v>
+      </c>
+      <c r="J18" t="n">
+        <v>101</v>
+      </c>
+      <c r="K18" t="n">
+        <v>83.78119149533876</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1377498248.544174</v>
+        <v>1271234230.385332</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1178342523271845</v>
+        <v>0.1786492391140904</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02582312278987603</v>
+        <v>0.02588887908370753</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2094082521.35058</v>
+        <v>2171678877.621619</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1033006016703122</v>
+        <v>0.1236730734189494</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02103970840959356</v>
+        <v>0.02455702417907445</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1657586765.19041</v>
+        <v>2690888318.064051</v>
       </c>
       <c r="F21" t="n">
-        <v>0.101328452192557</v>
+        <v>0.08412958747682164</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03025570867914162</v>
+        <v>0.02791052706235905</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3610383211.396247</v>
+        <v>2851447697.804069</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1382322627495694</v>
+        <v>0.1223587638380884</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03653376040413748</v>
+        <v>0.05294979183523971</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>99</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1027437157.486537</v>
+        <v>1060673652.921662</v>
       </c>
       <c r="F23" t="n">
-        <v>0.186013074106603</v>
+        <v>0.1635398337499592</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03951148317893051</v>
+        <v>0.03944035722986276</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3024832321.342309</v>
+        <v>2858441853.055434</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1122689021209577</v>
+        <v>0.09672438524639695</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03516810594811175</v>
+        <v>0.02809654030005838</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>30</v>
+      </c>
+      <c r="J24" t="n">
+        <v>101</v>
+      </c>
+      <c r="K24" t="n">
+        <v>92.78372299533329</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>915143259.6742269</v>
+        <v>1004596705.894475</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09577437745790199</v>
+        <v>0.1138920899907969</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02470859217997771</v>
+        <v>0.02332477310411621</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1353,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1078186068.758324</v>
+        <v>960940132.7712709</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08546299430977319</v>
+        <v>0.07789108057504439</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03248359136673711</v>
+        <v>0.03299966604559361</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3770305803.38338</v>
+        <v>3544020350.203661</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1445723701293767</v>
+        <v>0.1125389076747613</v>
       </c>
       <c r="G27" t="n">
-        <v>0.025342211530094</v>
+        <v>0.02502109381514089</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>40</v>
+      </c>
+      <c r="J27" t="n">
+        <v>101</v>
+      </c>
+      <c r="K27" t="n">
+        <v>128.805324660513</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2521433333.321501</v>
+        <v>3135935183.425246</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1452855253715941</v>
+        <v>0.1377319492135397</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04682465689490137</v>
+        <v>0.04154459802719634</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>23</v>
+      </c>
+      <c r="J28" t="n">
+        <v>95</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1454,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4303766085.234977</v>
+        <v>3630381100.278924</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1388094328239508</v>
+        <v>0.1501929626807639</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03232530988549011</v>
+        <v>0.04469998953620563</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>95</v>
+      </c>
+      <c r="J29" t="n">
+        <v>102</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2262027033.446217</v>
+        <v>2260110806.018404</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09586264383751948</v>
+        <v>0.1001716546751116</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03036235414650842</v>
+        <v>0.03969890991977364</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1155055780.546991</v>
+        <v>1280578688.316929</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08530357632034533</v>
+        <v>0.0735300787105627</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03647837681835956</v>
+        <v>0.04734859190231879</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1605294039.241241</v>
+        <v>1200869069.940925</v>
       </c>
       <c r="F32" t="n">
-        <v>0.10011540346609</v>
+        <v>0.1136946453483232</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03586688619414582</v>
+        <v>0.03676660377596392</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1600,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2894646428.800653</v>
+        <v>2708316834.107431</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2010891278646499</v>
+        <v>0.1769647396106332</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05443575186915724</v>
+        <v>0.05414004851517426</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1575856137.792959</v>
+        <v>1419191678.172943</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08588509098506111</v>
+        <v>0.07962632042921283</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02607309308569727</v>
+        <v>0.01872849564917882</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1670,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1302932390.084454</v>
+        <v>1106398252.564731</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07825404853396777</v>
+        <v>0.1067812294743181</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04349304396671515</v>
+        <v>0.03418638685383898</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2384619447.097556</v>
+        <v>2586790166.166491</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1312779146575563</v>
+        <v>0.1355824915821352</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01802653014018984</v>
+        <v>0.01791063685578219</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1957380085.89096</v>
+        <v>2655466985.932977</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08336294346128977</v>
+        <v>0.1055674791448384</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04096528142284052</v>
+        <v>0.03581853519398434</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1775,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1656273577.669963</v>
+        <v>2124794384.718096</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08455194968433954</v>
+        <v>0.07762329642257142</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03634020886252656</v>
+        <v>0.03911232199869024</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1810,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1517980862.164988</v>
+        <v>2165515516.232651</v>
       </c>
       <c r="F39" t="n">
-        <v>0.145562839026764</v>
+        <v>0.135744498589656</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0210015009192528</v>
+        <v>0.02149757864152625</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1603386361.646116</v>
+        <v>1555687660.281784</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1523550234962299</v>
+        <v>0.1009429503918908</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05546533695364207</v>
+        <v>0.04446481354164279</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1880,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2146852029.904338</v>
+        <v>2772409455.919616</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1209027634462792</v>
+        <v>0.1506049340468837</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03536936903905566</v>
+        <v>0.04225135107360225</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1915,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4193285026.58617</v>
+        <v>3584975305.25097</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1205216113114492</v>
+        <v>0.08259079766354539</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0400265737306606</v>
+        <v>0.03495763965237356</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>39</v>
+      </c>
+      <c r="J42" t="n">
+        <v>99</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2015538091.564453</v>
+        <v>2429361704.564371</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1796631759303409</v>
+        <v>0.1967662792211315</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01632786165965851</v>
+        <v>0.02272619872053199</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2016195056.737045</v>
+        <v>2281757238.055923</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06201427747188054</v>
+        <v>0.08304646011789438</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0228361181455</v>
+        <v>0.02295726803559498</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1970462864.458599</v>
+        <v>2110654235.498252</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1307550464489797</v>
+        <v>0.1419939533171663</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0433280720348724</v>
+        <v>0.03710407818739166</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3539650272.617301</v>
+        <v>5637251382.5773</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1400276034122248</v>
+        <v>0.1218248539593626</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03955752744125498</v>
+        <v>0.04190002137199294</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>58</v>
+      </c>
+      <c r="J46" t="n">
+        <v>102</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2090,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3893092254.380473</v>
+        <v>4165458201.6755</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1433811753983348</v>
+        <v>0.1445814885206431</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03659151967847529</v>
+        <v>0.04104326923450776</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>44</v>
+      </c>
+      <c r="J47" t="n">
+        <v>102</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2125,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2907511225.066301</v>
+        <v>4434265386.103426</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06718781853063409</v>
+        <v>0.0874695330954099</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02820552664247899</v>
+        <v>0.03617902352856832</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>37</v>
+      </c>
+      <c r="J48" t="n">
+        <v>102</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1624523819.879821</v>
+        <v>1672833562.101436</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1831298469583469</v>
+        <v>0.1941299191446333</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04381960422872932</v>
+        <v>0.03968424206796545</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2195,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2684616008.54518</v>
+        <v>3258968803.677841</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1305898449340091</v>
+        <v>0.1201200887902145</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0475098305421385</v>
+        <v>0.04942928737699918</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>36</v>
+      </c>
+      <c r="J50" t="n">
+        <v>101</v>
+      </c>
+      <c r="K50" t="n">
+        <v>130.3583285553325</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>991368543.293306</v>
+        <v>1164293577.634894</v>
       </c>
       <c r="F51" t="n">
-        <v>0.191489890418831</v>
+        <v>0.1508849157796295</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05259471735223138</v>
+        <v>0.05261018492898351</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4129624171.110291</v>
+        <v>3535712308.188821</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09616490892041241</v>
+        <v>0.1037332546091169</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0512061904179436</v>
+        <v>0.04179542934788094</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>79</v>
+      </c>
+      <c r="J52" t="n">
+        <v>102</v>
+      </c>
+      <c r="K52" t="n">
+        <v>162.3738246918346</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3561066077.992524</v>
+        <v>3546096272.422722</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1894143267276852</v>
+        <v>0.1837437081657784</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03129194327964806</v>
+        <v>0.02681732097281639</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>90</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3314039124.644949</v>
+        <v>3014657383.092839</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1359180774126391</v>
+        <v>0.1506971518101221</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04516048711788453</v>
+        <v>0.03863736637313211</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>46</v>
+      </c>
+      <c r="J54" t="n">
+        <v>101</v>
+      </c>
+      <c r="K54" t="n">
+        <v>110.7118116733301</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4906742802.549252</v>
+        <v>4323407454.999833</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1896684828753503</v>
+        <v>0.1538644978681104</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02405408381268244</v>
+        <v>0.02902004317681756</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>46</v>
+      </c>
+      <c r="J55" t="n">
+        <v>102</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1386751777.765538</v>
+        <v>1403685359.748406</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1638209253695061</v>
+        <v>0.1505804435451405</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04921011353335781</v>
+        <v>0.05625772276860024</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4511971146.931008</v>
+        <v>4407426110.280373</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1658367583666278</v>
+        <v>0.1803781047069651</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02741673839204192</v>
+        <v>0.02444570293939824</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>39</v>
+      </c>
+      <c r="J57" t="n">
+        <v>101</v>
+      </c>
+      <c r="K57" t="n">
+        <v>152.9724894256393</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1887178246.661779</v>
+        <v>1543822995.887239</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1539804843274644</v>
+        <v>0.1871192306005565</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03193749435609806</v>
+        <v>0.03104326801435392</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4051320150.36252</v>
+        <v>3645332918.452896</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1282121758543213</v>
+        <v>0.1213537481965325</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04627983317642759</v>
+        <v>0.03169234386141537</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>49</v>
+      </c>
+      <c r="J59" t="n">
+        <v>102</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3136689956.281595</v>
+        <v>2506141857.706845</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1471195066922192</v>
+        <v>0.1900990101408765</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02559765095515816</v>
+        <v>0.03160971118811311</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>14</v>
+      </c>
+      <c r="J60" t="n">
+        <v>97</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2091477856.918227</v>
+        <v>2400981179.110602</v>
       </c>
       <c r="F61" t="n">
-        <v>0.15416668350713</v>
+        <v>0.1141633719914944</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02516636439973728</v>
+        <v>0.02965973761075788</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1687353411.063745</v>
+        <v>1291410272.425499</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1363063507266885</v>
+        <v>0.175337565602175</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04551189839941998</v>
+        <v>0.03550402246231815</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2658,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4060988342.722373</v>
+        <v>3762506148.794723</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08778120125251664</v>
+        <v>0.06559945469083751</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03815557043394329</v>
+        <v>0.0411360894757591</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>50</v>
+      </c>
+      <c r="J63" t="n">
+        <v>102</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4995217293.085869</v>
+        <v>4695464746.0176</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1282849225260086</v>
+        <v>0.1514951620783639</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02814665341326495</v>
+        <v>0.024038677550542</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>50</v>
+      </c>
+      <c r="J64" t="n">
+        <v>102</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4724073977.226155</v>
+        <v>5482790333.515312</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1142727301534824</v>
+        <v>0.1244606342083192</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02577081797514232</v>
+        <v>0.02290094737234637</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>83</v>
+      </c>
+      <c r="J65" t="n">
+        <v>102</v>
+      </c>
+      <c r="K65" t="n">
+        <v>166.4200579268432</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4057823479.242227</v>
+        <v>5155103441.058053</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1485763860346913</v>
+        <v>0.09959653390811007</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04824700581427672</v>
+        <v>0.04838327107140018</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>50</v>
+      </c>
+      <c r="J66" t="n">
+        <v>101</v>
+      </c>
+      <c r="K66" t="n">
+        <v>152.1001543238081</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2462473663.245179</v>
+        <v>2372546248.254383</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07036683326492339</v>
+        <v>0.09609585322632332</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03340271330760983</v>
+        <v>0.0441309936836711</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5313282402.921277</v>
+        <v>4843173905.336006</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1427248282322712</v>
+        <v>0.1345602361117977</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0376695489188472</v>
+        <v>0.05048953804750972</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>51</v>
+      </c>
+      <c r="J68" t="n">
+        <v>101</v>
+      </c>
+      <c r="K68" t="n">
+        <v>152.2834466553285</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2277230241.313423</v>
+        <v>2225661201.578931</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1231240464571284</v>
+        <v>0.1291657754838834</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04226447595870889</v>
+        <v>0.05513372691626224</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2858744619.011823</v>
+        <v>2839450395.820923</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0932154597505718</v>
+        <v>0.07530295195961727</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03129004901240821</v>
+        <v>0.03321187653583858</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>12</v>
+      </c>
+      <c r="J70" t="n">
+        <v>95</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5309940069.668958</v>
+        <v>4040710626.254394</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1378872536786559</v>
+        <v>0.155882960550468</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03071082924319387</v>
+        <v>0.02647820391223272</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>83</v>
+      </c>
+      <c r="J71" t="n">
+        <v>102</v>
+      </c>
+      <c r="K71" t="n">
+        <v>166.6906156074074</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1378343307.98118</v>
+        <v>2236617625.536455</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07904514925836675</v>
+        <v>0.1028290875281142</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05259023347254899</v>
+        <v>0.04581527340588777</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2895300059.189479</v>
+        <v>3033687604.981122</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07085488750743316</v>
+        <v>0.08221018422824447</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03858424463038538</v>
+        <v>0.03972583166450069</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" t="n">
+        <v>98</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3728008233.660709</v>
+        <v>3875756308.711948</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1119387465032596</v>
+        <v>0.1202810191170322</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0330285772569148</v>
+        <v>0.02880625740497489</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>33</v>
+      </c>
+      <c r="J74" t="n">
+        <v>102</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2277345585.410479</v>
+        <v>2369686034.022844</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1221573776910994</v>
+        <v>0.1611460121082016</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03796540734116112</v>
+        <v>0.03322527039373718</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3121,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3692768136.627483</v>
+        <v>4804242046.498199</v>
       </c>
       <c r="F76" t="n">
-        <v>0.106289252709981</v>
+        <v>0.09261864101568672</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02145323113803041</v>
+        <v>0.03233191069095685</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>47</v>
+      </c>
+      <c r="J76" t="n">
+        <v>101</v>
+      </c>
+      <c r="K76" t="n">
+        <v>132.3212838819165</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2251995403.875683</v>
+        <v>1561745466.342771</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1540143405401331</v>
+        <v>0.1752392588087415</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0293616604382508</v>
+        <v>0.02077117987413095</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4702133770.269771</v>
+        <v>3619733305.402936</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1371734817080497</v>
+        <v>0.1138027805993854</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04254920238856279</v>
+        <v>0.0431177433805637</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>51</v>
+      </c>
+      <c r="J78" t="n">
+        <v>99</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1571121050.948745</v>
+        <v>1252821364.078564</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1521781288625827</v>
+        <v>0.1427328904235489</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03753286234876452</v>
+        <v>0.02616634608864616</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3263,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4223732751.576768</v>
+        <v>4169209927.891455</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07447704121102681</v>
+        <v>0.06909316568152783</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0234107095412717</v>
+        <v>0.03076661315792367</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>49</v>
+      </c>
+      <c r="J80" t="n">
+        <v>101</v>
+      </c>
+      <c r="K80" t="n">
+        <v>123.018876873037</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4540834272.443565</v>
+        <v>3702345089.166734</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1355405959602325</v>
+        <v>0.107436979343982</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02881896336569026</v>
+        <v>0.02290641026995917</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>46</v>
+      </c>
+      <c r="J81" t="n">
+        <v>102</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3774736498.491218</v>
+        <v>3536493153.333407</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2079823593752824</v>
+        <v>0.1926256732249735</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02490563539550553</v>
+        <v>0.02476675671161686</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>67</v>
+      </c>
+      <c r="J82" t="n">
+        <v>102</v>
+      </c>
+      <c r="K82" t="n">
+        <v>162.1873019173489</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1705899708.435941</v>
+        <v>1721839860.903151</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1007225907492536</v>
+        <v>0.129506908670346</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04544393879856996</v>
+        <v>0.03845179227723283</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1569066705.108578</v>
+        <v>2315528043.402816</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0906933186584023</v>
+        <v>0.1170515136820618</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03641204380142425</v>
+        <v>0.03885565680950627</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3146048561.215276</v>
+        <v>3603300628.227558</v>
       </c>
       <c r="F85" t="n">
-        <v>0.163899677450368</v>
+        <v>0.1133691615313277</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04044398193578002</v>
+        <v>0.05467882703034056</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>18</v>
+      </c>
+      <c r="J85" t="n">
+        <v>100</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2405273563.839734</v>
+        <v>1844846432.731793</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1684297880721768</v>
+        <v>0.1474461564640993</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01899307012782651</v>
+        <v>0.0204074427852882</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1481712124.254776</v>
+        <v>1331166941.010132</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1179192777865615</v>
+        <v>0.1201720772035474</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04297335338938728</v>
+        <v>0.02942407352596538</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3036910790.065213</v>
+        <v>3450788226.892516</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1114590636736991</v>
+        <v>0.1219961620339847</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02580899911388657</v>
+        <v>0.02478194468504606</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>16</v>
+      </c>
+      <c r="J88" t="n">
+        <v>98</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3490125614.472468</v>
+        <v>3137026230.682666</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1440934223477646</v>
+        <v>0.1118106142607033</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03274845529347566</v>
+        <v>0.02841358797669831</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2128856082.997804</v>
+        <v>1749765548.607524</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1323707611385298</v>
+        <v>0.1312227385285135</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05447087905384637</v>
+        <v>0.03509327543667569</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1651505846.063173</v>
+        <v>1923542324.384606</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1762056564330406</v>
+        <v>0.1201765028159233</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0546328842721051</v>
+        <v>0.05802077098456401</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2720569300.952254</v>
+        <v>2328420532.712357</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09960513575276525</v>
+        <v>0.09936222343089204</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02964424642630777</v>
+        <v>0.04769024822386357</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4213153957.536768</v>
+        <v>3982887559.072809</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09740494294947215</v>
+        <v>0.09299009261919933</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04742678131622133</v>
+        <v>0.0421469614463269</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>46</v>
+      </c>
+      <c r="J93" t="n">
+        <v>102</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2495804253.001868</v>
+        <v>1823223451.318903</v>
       </c>
       <c r="F94" t="n">
-        <v>0.108547833692286</v>
+        <v>0.1249684327595496</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03145475163654082</v>
+        <v>0.04118416952152556</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2557140114.938446</v>
+        <v>3012736834.722286</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1255551635973212</v>
+        <v>0.09305236604287806</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03263723237570524</v>
+        <v>0.03753622728618335</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1717628078.050905</v>
+        <v>1601921047.91082</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1021952562721313</v>
+        <v>0.104664771833781</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04706858976514495</v>
+        <v>0.0316304574364376</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3838459458.681427</v>
+        <v>4947546302.382677</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1655160172499839</v>
+        <v>0.1486063803583518</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0202765304662584</v>
+        <v>0.02266234953690203</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>49</v>
+      </c>
+      <c r="J97" t="n">
+        <v>101</v>
+      </c>
+      <c r="K97" t="n">
+        <v>159.4498764904262</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3835538817.919852</v>
+        <v>3807903971.205229</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1050364378546369</v>
+        <v>0.1051292509862238</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0215557299475641</v>
+        <v>0.02781235736159352</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>22</v>
+      </c>
+      <c r="J98" t="n">
+        <v>102</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2609107824.081986</v>
+        <v>3277732751.278454</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0992080500379045</v>
+        <v>0.09615968470150062</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03364003871817596</v>
+        <v>0.03135886219416934</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3960358637.669657</v>
+        <v>4790602475.544243</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1418242654322676</v>
+        <v>0.1417044065235963</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01754638388959407</v>
+        <v>0.01769213818434316</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>42</v>
+      </c>
+      <c r="J100" t="n">
+        <v>101</v>
+      </c>
+      <c r="K100" t="n">
+        <v>148.72681829459</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3257451955.879378</v>
+        <v>2230339722.431297</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1413907900945696</v>
+        <v>0.1698386347308796</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05256018422040155</v>
+        <v>0.04042027123215213</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>90</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
